--- a/test data/Graphs/astar graph popularity.xlsx
+++ b/test data/Graphs/astar graph popularity.xlsx
@@ -197,6 +197,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1067,11 +1068,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="72701440"/>
-        <c:axId val="72708096"/>
+        <c:axId val="180311936"/>
+        <c:axId val="287965568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72701440"/>
+        <c:axId val="180311936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1098,18 +1099,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72708096"/>
+        <c:crossAx val="287965568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72708096"/>
+        <c:axId val="287965568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1139,13 +1141,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72701440"/>
+        <c:crossAx val="180311936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1458,11 +1461,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="72728960"/>
-        <c:axId val="72731264"/>
+        <c:axId val="311865728"/>
+        <c:axId val="311867648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72728960"/>
+        <c:axId val="311865728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,12 +1494,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72731264"/>
+        <c:crossAx val="311867648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72731264"/>
+        <c:axId val="311867648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1531,7 +1534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72728960"/>
+        <c:crossAx val="311865728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1813,11 +1816,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="72761344"/>
-        <c:axId val="72763264"/>
+        <c:axId val="180692096"/>
+        <c:axId val="180694016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72761344"/>
+        <c:axId val="180692096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1846,12 +1849,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72763264"/>
+        <c:crossAx val="180694016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72763264"/>
+        <c:axId val="180694016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1886,7 +1889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72761344"/>
+        <c:crossAx val="180692096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1939,6 +1942,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2173,11 +2177,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="73265920"/>
-        <c:axId val="73267840"/>
+        <c:axId val="180730880"/>
+        <c:axId val="180733056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73265920"/>
+        <c:axId val="180730880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2199,18 +2203,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73267840"/>
+        <c:crossAx val="180733056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73267840"/>
+        <c:axId val="180733056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2238,13 +2243,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73265920"/>
+        <c:crossAx val="180730880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2531,11 +2537,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74810112"/>
-        <c:axId val="74812032"/>
+        <c:axId val="299975808"/>
+        <c:axId val="299977728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74810112"/>
+        <c:axId val="299975808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2563,12 +2569,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74812032"/>
+        <c:crossAx val="299977728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74812032"/>
+        <c:axId val="299977728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2602,7 +2608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74810112"/>
+        <c:crossAx val="299975808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3028,11 +3034,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="165588992"/>
-        <c:axId val="165590912"/>
+        <c:axId val="79268864"/>
+        <c:axId val="79271040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165588992"/>
+        <c:axId val="79268864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,7 +3067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165590912"/>
+        <c:crossAx val="79271040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3069,7 +3075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165590912"/>
+        <c:axId val="79271040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3103,7 +3109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165588992"/>
+        <c:crossAx val="79268864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3637,7 +3643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
